--- a/Data/SchoolReopeningSpring2021.xlsx
+++ b/Data/SchoolReopeningSpring2021.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7D22C-FCA0-074E-9E7C-B0D00DFE001A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D708CBB5-CC7A-5042-818B-E50C78A6B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40280" yWindow="-5080" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="28740" windowHeight="16140" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>Question</t>
   </si>
@@ -167,6 +167,105 @@
 • Attending Pre-K in a center or program
 • Other, please specify:
 • Don't know</t>
+  </si>
+  <si>
+    <t>51, 61, 63</t>
+  </si>
+  <si>
+    <t>51, 61,63</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+When school resumes in the fall, do you believe wearing masks/facial coverings should be mandated for everyone (both students and staff)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[If yes to children in K-12]
+How much do you agree or disagree with the following?
+• Schools should reopen for all students in the fall
+• I would rather homeschool my child until they have received the COVID-19 vaccine
+• The overall experience of being in school is more important for students, despite ongoing COVID-19 concerns around the country
+• Even if measures are put in place, I am concerned about students following through and fully complying with social distancing and mask wearing mandates
+</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+Thinking about the upcoming school year, how concerned are you about the following?
+• The quality of your children's education being negatively impacted by the COVID-19 pandemic
+• School reopening safely in the fall
+• The potential disruption to your daily routines if virtual (at-home) learning is necessary
+• Your child contracting COVID-19 as a result of attending school
+• Your child bringing COVID-19 home as a result of attending school</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+In light of the COVID-19 pandemic, how comfortable would you be with the following?
+• Your children's school(s) reopening at full capacity in the fall
+• Your children's school(s) reopening at 50% capacity in the fall, with the other 50% dedicated to virtual learning
+• Your children's school(s) reopening in the fall exclusively with virtual leraning</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Unsure at this time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team Modified Racial and Ethnic Differences in Parental Attitudes and Concerns About School Reopening During the COVID-19 Pandemic – United States, July 2020 </t>
+  </si>
+  <si>
+    <t>https://stacks.cdc.gov/view/cdc/99499</t>
+  </si>
+  <si>
+    <t>For your child age 0-5, how much do you agree or disagree with the following?
+• Childcare centers and programs should reopen as they were before the pandemic
+• I would rather keep my child at home until they have received the COVID-19 vaccine
+• The overall experience of being in a childcare center or programs is more important for children, despite the ongoing COVID-19 concerns around the country
+• Even if measures are put in place, I am concerned about children following through and fully complying with mask mandates and other guidelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Not at all concerned 
+• Slightly concerned 
+• Somewhat concerned 
+• Moderately concerned 
+• Extremely concerned </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very uncomfortable 
+• Uncomfortable 
+• Somewhat uncomfortable 
+• Comfortbale 
+• Very comfortable </t>
+  </si>
+  <si>
+    <t>• Very uncomfortable
+• Uncomfortable 
+• Somewhat uncomfortable 
+• Comfortbale
+• Very comfortable</t>
+  </si>
+  <si>
+    <t>• Strongly disagree
+• Disagree
+• Neither agree or disagree
+• Agree
+• Strongly Agree</t>
+  </si>
+  <si>
+    <t>Thinking about your child's early learning, how concerned are you about the following?
+• The quality of your children's early education being negatively impacted by the COVID-19 pandemic
+• Chldcare centers and programs operating safely
+• The potential disruption to your daily routines if virtual (at-home) learning is necessary
+• Your child contracting COVID-19 as a result of attending a childcare program
+• Your child bringing home COVID-19 home as a result of attending a childcare program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In light of the COVID-19 pandemic, how comfortable would you be with the following?
+• Your children's childcare center or program operating at full capacity
+• Your children's childcare center or program operating at 50% capacity, with the other 50% dedicated to virtual (at-home) learning
+• Your children's childcare center or program operating exclusively with virtual learning
+</t>
+  </si>
+  <si>
+    <t>Do you believe wearing masks/facial coverings should be mandated for everyone (teachers, staff, and children)?</t>
   </si>
 </sst>
 </file>
@@ -223,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -244,6 +343,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -719,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -733,77 +835,279 @@
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
+    <row r="19" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="221" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
+    <row r="21" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="6">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{788DBBC1-796F-1F40-9A38-67C1EFA7DE9B}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{51188D78-6E7A-A04E-8594-51E7417B09F5}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{961B27AF-33BE-0843-B0C4-52EA034DDD14}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{961B27AF-33BE-0843-B0C4-52EA034DDD14}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{51188D78-6E7A-A04E-8594-51E7417B09F5}"/>
+    <hyperlink ref="D25" r:id="rId4" xr:uid="{BB987D4C-220A-334F-99BF-6D196C097818}"/>
+    <hyperlink ref="D26" r:id="rId5" xr:uid="{413571D5-72AB-9849-A99F-45205A241340}"/>
+    <hyperlink ref="D27" r:id="rId6" xr:uid="{5AD39EEA-89DC-7947-9E8A-915DA7295358}"/>
+    <hyperlink ref="D28" r:id="rId7" xr:uid="{62F4724A-0435-0D4C-970E-38C617814509}"/>
+    <hyperlink ref="D24" r:id="rId8" xr:uid="{AF06F592-9873-2B40-9E81-EBB839553E5A}"/>
+    <hyperlink ref="D23" r:id="rId9" xr:uid="{EF5E4A62-929F-6643-BE86-4A7ED58F071F}"/>
+    <hyperlink ref="D22" r:id="rId10" xr:uid="{A079FC01-2294-AE4C-A4DB-81ED6794D5E6}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{4B2C8A34-D978-C343-B780-D7C39D51E593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
